--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13356" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13356" uniqueCount="1231">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1007,7 +1007,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore)
 </t>
   </si>
   <si>
@@ -1272,10 +1272,6 @@
     <t>Patient.identifier:idCardNumber.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore)
-</t>
-  </si>
-  <si>
     <t>簽發identifier的機構（可以只是文字表述）</t>
   </si>
   <si>
@@ -1610,6 +1606,10 @@
   </si>
   <si>
     <t>Patient.identifier:member.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2317,12 +2317,6 @@
   </si>
   <si>
     <t>住民的現居地址</t>
-  </si>
-  <si>
-    <t>使用郵政規範表達的地址（相對於GPS或其他位置定義格式）。這種data type可用於傳達投遞郵件的位址，以及用於訪問可能對郵件投遞無效的位置，這世界定義了各種郵政地址格式。</t>
-  </si>
-  <si>
-    <t>注意：地址的目的是描述用於管理目的之郵政地址，而不是描述絕對的地理座標。郵政地址經常被用作實體位置的代表（亦可見[Location](http://hl7.org/fhir/R4/location.html#)resource）。</t>
   </si>
   <si>
     <t>Patient.address:home.id</t>
@@ -3493,6 +3487,9 @@
   </si>
   <si>
     <t>聯絡人的地址</t>
+  </si>
+  <si>
+    <t>注意：地址的目的是描述用於管理目的之郵政地址，而不是描述絕對的地理座標。郵政地址經常被用作實體位置的代表（亦可見[Location](http://hl7.org/fhir/R4/location.html#)resource）。</t>
   </si>
   <si>
     <t>需要紀錄用以聯絡聯絡人的郵件地址或到訪地址</t>
@@ -4139,17 +4136,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="92.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="63.1015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.36328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="80.15625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.7578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="231.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="209.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4158,27 +4155,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.17578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.8515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.58203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.9375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="137.7109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="35.7421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.15234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11227,16 +11224,16 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -11318,13 +11315,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>262</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>20</v>
@@ -11349,10 +11346,10 @@
         <v>263</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -11437,7 +11434,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>272</v>
@@ -11552,7 +11549,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>273</v>
@@ -11669,7 +11666,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>274</v>
@@ -11788,7 +11785,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>283</v>
@@ -11907,7 +11904,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>350</v>
@@ -12022,7 +12019,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>352</v>
@@ -12139,7 +12136,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>354</v>
@@ -12258,7 +12255,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>358</v>
@@ -12373,7 +12370,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>360</v>
@@ -12490,7 +12487,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>362</v>
@@ -12609,7 +12606,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>366</v>
@@ -12726,7 +12723,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>368</v>
@@ -12772,7 +12769,7 @@
         <v>20</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>20</v>
@@ -12843,7 +12840,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>387</v>
@@ -12960,7 +12957,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>389</v>
@@ -13079,7 +13076,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>391</v>
@@ -13198,7 +13195,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>295</v>
@@ -13227,7 +13224,7 @@
         <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>394</v>
@@ -13246,7 +13243,7 @@
         <v>20</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>300</v>
@@ -13317,7 +13314,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>304</v>
@@ -13346,7 +13343,7 @@
         <v>158</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>400</v>
@@ -13434,7 +13431,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>312</v>
@@ -13549,7 +13546,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>319</v>
@@ -13575,16 +13572,16 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -13666,13 +13663,13 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>262</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>20</v>
@@ -13697,10 +13694,10 @@
         <v>263</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -13785,7 +13782,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>272</v>
@@ -13900,7 +13897,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>273</v>
@@ -14017,7 +14014,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>274</v>
@@ -14136,7 +14133,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>283</v>
@@ -14255,7 +14252,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>350</v>
@@ -14370,7 +14367,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>352</v>
@@ -14487,7 +14484,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>354</v>
@@ -14606,7 +14603,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>358</v>
@@ -14721,7 +14718,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>360</v>
@@ -14838,7 +14835,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>362</v>
@@ -14957,7 +14954,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>366</v>
@@ -15074,7 +15071,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>368</v>
@@ -15120,7 +15117,7 @@
         <v>20</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>20</v>
@@ -15191,7 +15188,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>387</v>
@@ -15308,7 +15305,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>389</v>
@@ -15427,7 +15424,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>391</v>
@@ -15546,7 +15543,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>295</v>
@@ -15575,7 +15572,7 @@
         <v>102</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>394</v>
@@ -15594,7 +15591,7 @@
         <v>20</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>300</v>
@@ -15665,7 +15662,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>304</v>
@@ -15694,7 +15691,7 @@
         <v>158</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>400</v>
@@ -15782,7 +15779,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>312</v>
@@ -15897,7 +15894,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>319</v>
@@ -15923,16 +15920,16 @@
         <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -16014,13 +16011,13 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>262</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>20</v>
@@ -16045,10 +16042,10 @@
         <v>263</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -16133,7 +16130,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>272</v>
@@ -16248,7 +16245,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>273</v>
@@ -16365,7 +16362,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>274</v>
@@ -16484,7 +16481,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>283</v>
@@ -16603,7 +16600,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>350</v>
@@ -16718,7 +16715,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>352</v>
@@ -16835,7 +16832,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>354</v>
@@ -16954,7 +16951,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>358</v>
@@ -17069,7 +17066,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>360</v>
@@ -17186,7 +17183,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>362</v>
@@ -17305,7 +17302,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>366</v>
@@ -17422,7 +17419,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>368</v>
@@ -17468,7 +17465,7 @@
         <v>20</v>
       </c>
       <c r="S114" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>20</v>
@@ -17539,7 +17536,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>387</v>
@@ -17656,7 +17653,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>389</v>
@@ -17775,7 +17772,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>391</v>
@@ -17894,7 +17891,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>295</v>
@@ -17923,7 +17920,7 @@
         <v>102</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>394</v>
@@ -18013,7 +18010,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>304</v>
@@ -18042,7 +18039,7 @@
         <v>158</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>400</v>
@@ -18130,7 +18127,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>312</v>
@@ -18245,7 +18242,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>319</v>
@@ -18271,16 +18268,16 @@
         <v>89</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -18362,13 +18359,13 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>262</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>20</v>
@@ -18393,7 +18390,7 @@
         <v>263</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>265</v>
@@ -18481,7 +18478,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>272</v>
@@ -18596,7 +18593,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>273</v>
@@ -18713,7 +18710,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>274</v>
@@ -18832,7 +18829,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>283</v>
@@ -18861,13 +18858,13 @@
         <v>176</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>288</v>
@@ -18951,7 +18948,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>350</v>
@@ -19066,7 +19063,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>352</v>
@@ -19183,7 +19180,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>354</v>
@@ -19302,7 +19299,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>358</v>
@@ -19417,7 +19414,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>360</v>
@@ -19534,7 +19531,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>362</v>
@@ -19653,7 +19650,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>366</v>
@@ -19770,7 +19767,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>368</v>
@@ -19816,7 +19813,7 @@
         <v>20</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>20</v>
@@ -19887,7 +19884,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>387</v>
@@ -20004,7 +20001,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>389</v>
@@ -20123,7 +20120,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>391</v>
@@ -20242,7 +20239,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>295</v>
@@ -20271,7 +20268,7 @@
         <v>102</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>297</v>
@@ -20361,7 +20358,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>304</v>
@@ -20390,7 +20387,7 @@
         <v>158</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>306</v>
@@ -20478,7 +20475,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>312</v>
@@ -20593,7 +20590,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>319</v>
@@ -20619,7 +20616,7 @@
         <v>89</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>320</v>
+        <v>517</v>
       </c>
       <c r="L141" t="s" s="2">
         <v>321</v>
@@ -27082,10 +27079,10 @@
         <v>747</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>740</v>
@@ -27169,10 +27166,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -27198,10 +27195,10 @@
         <v>158</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -27284,10 +27281,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27401,13 +27398,13 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B199" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="C199" t="s" s="2">
         <v>755</v>
-      </c>
-      <c r="C199" t="s" s="2">
-        <v>757</v>
       </c>
       <c r="D199" t="s" s="2">
         <v>20</v>
@@ -27429,13 +27426,13 @@
         <v>20</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L199" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -27518,13 +27515,13 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D200" t="s" s="2">
         <v>20</v>
@@ -27546,13 +27543,13 @@
         <v>20</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>763</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -27635,13 +27632,13 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D201" t="s" s="2">
         <v>20</v>
@@ -27663,13 +27660,13 @@
         <v>20</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="M201" t="s" s="2">
         <v>768</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="M201" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -27752,13 +27749,13 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D202" t="s" s="2">
         <v>20</v>
@@ -27780,13 +27777,13 @@
         <v>20</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="M202" t="s" s="2">
         <v>773</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>775</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -27869,16 +27866,16 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="D203" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="B203" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="C203" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="D203" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" t="s" s="2">
@@ -27897,13 +27894,13 @@
         <v>20</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>779</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>781</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -27986,13 +27983,13 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>20</v>
@@ -28014,13 +28011,13 @@
         <v>20</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="M204" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>786</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -28103,13 +28100,13 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>20</v>
@@ -28131,13 +28128,13 @@
         <v>20</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="M205" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -28220,16 +28217,16 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="D206" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="B206" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="C206" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="D206" t="s" s="2">
-        <v>794</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
@@ -28248,13 +28245,13 @@
         <v>20</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M206" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -28337,10 +28334,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28366,16 +28363,16 @@
         <v>108</v>
       </c>
       <c r="L207" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="N207" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M207" t="s" s="2">
+      <c r="O207" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="O207" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>20</v>
@@ -28403,28 +28400,28 @@
         <v>179</v>
       </c>
       <c r="Y207" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF207" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="Z207" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="AA207" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB207" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC207" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD207" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE207" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF207" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>79</v>
@@ -28448,7 +28445,7 @@
         <v>20</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>20</v>
@@ -28456,10 +28453,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28485,13 +28482,13 @@
         <v>108</v>
       </c>
       <c r="L208" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="N208" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>812</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -28505,7 +28502,7 @@
         <v>20</v>
       </c>
       <c r="T208" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U208" t="s" s="2">
         <v>20</v>
@@ -28520,28 +28517,28 @@
         <v>179</v>
       </c>
       <c r="Y208" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF208" t="s" s="2">
         <v>814</v>
-      </c>
-      <c r="Z208" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>79</v>
@@ -28565,7 +28562,7 @@
         <v>20</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>20</v>
@@ -28573,10 +28570,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28602,13 +28599,13 @@
         <v>158</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="N209" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>822</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>560</v>
@@ -28624,7 +28621,7 @@
         <v>20</v>
       </c>
       <c r="T209" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="U209" t="s" s="2">
         <v>20</v>
@@ -28660,7 +28657,7 @@
         <v>20</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>79</v>
@@ -28684,7 +28681,7 @@
         <v>20</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>20</v>
@@ -28692,14 +28689,14 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
@@ -28721,10 +28718,10 @@
         <v>158</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -28739,7 +28736,7 @@
         <v>20</v>
       </c>
       <c r="T210" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="U210" t="s" s="2">
         <v>20</v>
@@ -28775,7 +28772,7 @@
         <v>20</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>79</v>
@@ -28790,7 +28787,7 @@
         <v>100</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>20</v>
@@ -28799,7 +28796,7 @@
         <v>20</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>20</v>
@@ -28807,14 +28804,14 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" t="s" s="2">
@@ -28836,10 +28833,10 @@
         <v>158</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -28854,7 +28851,7 @@
         <v>20</v>
       </c>
       <c r="T211" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="U211" t="s" s="2">
         <v>20</v>
@@ -28890,7 +28887,7 @@
         <v>20</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>79</v>
@@ -28905,7 +28902,7 @@
         <v>100</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AL211" t="s" s="2">
         <v>20</v>
@@ -28914,7 +28911,7 @@
         <v>20</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>20</v>
@@ -28922,14 +28919,14 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
@@ -28951,13 +28948,13 @@
         <v>158</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="N212" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
@@ -28971,7 +28968,7 @@
         <v>20</v>
       </c>
       <c r="T212" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="U212" t="s" s="2">
         <v>20</v>
@@ -29007,7 +29004,7 @@
         <v>20</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>79</v>
@@ -29022,7 +29019,7 @@
         <v>100</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>20</v>
@@ -29031,7 +29028,7 @@
         <v>20</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>20</v>
@@ -29039,14 +29036,14 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
@@ -29068,10 +29065,10 @@
         <v>158</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -29122,7 +29119,7 @@
         <v>20</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>79</v>
@@ -29137,7 +29134,7 @@
         <v>100</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AL213" t="s" s="2">
         <v>20</v>
@@ -29146,7 +29143,7 @@
         <v>20</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>20</v>
@@ -29154,14 +29151,14 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
@@ -29183,10 +29180,10 @@
         <v>158</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -29201,7 +29198,7 @@
         <v>20</v>
       </c>
       <c r="T214" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="U214" t="s" s="2">
         <v>20</v>
@@ -29237,7 +29234,7 @@
         <v>20</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>79</v>
@@ -29252,7 +29249,7 @@
         <v>100</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AL214" t="s" s="2">
         <v>20</v>
@@ -29261,7 +29258,7 @@
         <v>20</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AO214" t="s" s="2">
         <v>20</v>
@@ -29269,10 +29266,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -29298,10 +29295,10 @@
         <v>158</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -29384,10 +29381,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29413,10 +29410,10 @@
         <v>134</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -29497,13 +29494,13 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>20</v>
@@ -29525,13 +29522,13 @@
         <v>20</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -29614,10 +29611,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29643,10 +29640,10 @@
         <v>158</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -29729,10 +29726,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29844,10 +29841,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29873,13 +29870,13 @@
         <v>102</v>
       </c>
       <c r="L220" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="N220" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
@@ -29887,7 +29884,7 @@
       </c>
       <c r="Q220" s="2"/>
       <c r="R220" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="S220" t="s" s="2">
         <v>20</v>
@@ -29961,10 +29958,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29990,13 +29987,13 @@
         <v>284</v>
       </c>
       <c r="L221" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="N221" t="s" s="2">
         <v>893</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>894</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>895</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
@@ -30078,10 +30075,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -30107,10 +30104,10 @@
         <v>158</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -30193,10 +30190,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -30225,10 +30222,10 @@
         <v>135</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O223" s="2"/>
       <c r="P223" t="s" s="2">
@@ -30310,10 +30307,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -30336,19 +30333,19 @@
         <v>20</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M224" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="M224" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="N224" t="s" s="2">
         <v>356</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>20</v>
@@ -30385,7 +30382,7 @@
         <v>20</v>
       </c>
       <c r="AB224" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="AC224" s="2"/>
       <c r="AD224" t="s" s="2">
@@ -30410,7 +30407,7 @@
         <v>100</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AL224" t="s" s="2">
         <v>20</v>
@@ -30419,7 +30416,7 @@
         <v>20</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AO224" t="s" s="2">
         <v>20</v>
@@ -30427,13 +30424,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>20</v>
@@ -30455,19 +30452,19 @@
         <v>20</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M225" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="N225" t="s" s="2">
         <v>356</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>20</v>
@@ -30495,10 +30492,10 @@
         <v>179</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>20</v>
@@ -30531,7 +30528,7 @@
         <v>100</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AL225" t="s" s="2">
         <v>20</v>
@@ -30540,7 +30537,7 @@
         <v>20</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AO225" t="s" s="2">
         <v>20</v>
@@ -30548,10 +30545,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30577,10 +30574,10 @@
         <v>158</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -30663,10 +30660,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30692,13 +30689,13 @@
         <v>134</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
@@ -30780,10 +30777,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30809,16 +30806,16 @@
         <v>102</v>
       </c>
       <c r="L228" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="N228" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="M228" t="s" s="2">
+      <c r="O228" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O228" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>20</v>
@@ -30828,7 +30825,7 @@
         <v>20</v>
       </c>
       <c r="S228" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="T228" t="s" s="2">
         <v>20</v>
@@ -30899,10 +30896,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -30928,13 +30925,13 @@
         <v>158</v>
       </c>
       <c r="L229" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="N229" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
@@ -31016,10 +31013,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -31045,14 +31042,14 @@
         <v>108</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>20</v>
@@ -31133,10 +31130,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31162,14 +31159,14 @@
         <v>158</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>20</v>
@@ -31250,10 +31247,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31279,16 +31276,16 @@
         <v>240</v>
       </c>
       <c r="L232" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="N232" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="M232" t="s" s="2">
+      <c r="O232" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>20</v>
@@ -31369,13 +31366,13 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>20</v>
@@ -31397,19 +31394,19 @@
         <v>20</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M233" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="N233" t="s" s="2">
         <v>356</v>
       </c>
       <c r="O233" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>20</v>
@@ -31437,10 +31434,10 @@
         <v>179</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="Z233" t="s" s="2">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AA233" t="s" s="2">
         <v>20</v>
@@ -31473,7 +31470,7 @@
         <v>100</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AL233" t="s" s="2">
         <v>20</v>
@@ -31482,7 +31479,7 @@
         <v>20</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AO233" t="s" s="2">
         <v>20</v>
@@ -31490,10 +31487,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31519,10 +31516,10 @@
         <v>158</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -31605,10 +31602,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31634,13 +31631,13 @@
         <v>134</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O235" s="2"/>
       <c r="P235" t="s" s="2">
@@ -31722,10 +31719,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31751,16 +31748,16 @@
         <v>102</v>
       </c>
       <c r="L236" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="N236" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="O236" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O236" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>20</v>
@@ -31770,7 +31767,7 @@
         <v>20</v>
       </c>
       <c r="S236" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="T236" t="s" s="2">
         <v>20</v>
@@ -31841,10 +31838,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -31870,13 +31867,13 @@
         <v>158</v>
       </c>
       <c r="L237" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="N237" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
@@ -31958,10 +31955,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31987,14 +31984,14 @@
         <v>108</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>20</v>
@@ -32075,10 +32072,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -32104,14 +32101,14 @@
         <v>158</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="P239" t="s" s="2">
         <v>20</v>
@@ -32192,10 +32189,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32221,16 +32218,16 @@
         <v>240</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="N240" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="M240" t="s" s="2">
+      <c r="O240" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>20</v>
@@ -32311,13 +32308,13 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>20</v>
@@ -32339,19 +32336,19 @@
         <v>20</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M241" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="N241" t="s" s="2">
         <v>356</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>20</v>
@@ -32379,10 +32376,10 @@
         <v>179</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="Z241" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AA241" t="s" s="2">
         <v>20</v>
@@ -32415,7 +32412,7 @@
         <v>100</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AL241" t="s" s="2">
         <v>20</v>
@@ -32424,7 +32421,7 @@
         <v>20</v>
       </c>
       <c r="AN241" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AO241" t="s" s="2">
         <v>20</v>
@@ -32432,10 +32429,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -32461,10 +32458,10 @@
         <v>158</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -32547,10 +32544,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -32576,13 +32573,13 @@
         <v>134</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O243" s="2"/>
       <c r="P243" t="s" s="2">
@@ -32664,10 +32661,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -32693,16 +32690,16 @@
         <v>102</v>
       </c>
       <c r="L244" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="N244" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="O244" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O244" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="P244" t="s" s="2">
         <v>20</v>
@@ -32712,7 +32709,7 @@
         <v>20</v>
       </c>
       <c r="S244" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="T244" t="s" s="2">
         <v>20</v>
@@ -32783,10 +32780,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32812,13 +32809,13 @@
         <v>158</v>
       </c>
       <c r="L245" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="M245" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="N245" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="M245" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
@@ -32900,10 +32897,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32929,14 +32926,14 @@
         <v>108</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="P246" t="s" s="2">
         <v>20</v>
@@ -33017,10 +33014,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -33046,14 +33043,14 @@
         <v>158</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="P247" t="s" s="2">
         <v>20</v>
@@ -33134,10 +33131,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -33163,16 +33160,16 @@
         <v>240</v>
       </c>
       <c r="L248" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M248" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="N248" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="M248" t="s" s="2">
+      <c r="O248" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="O248" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>20</v>
@@ -33253,10 +33250,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -33282,16 +33279,16 @@
         <v>158</v>
       </c>
       <c r="L249" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N249" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M249" t="s" s="2">
+      <c r="O249" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N249" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="O249" t="s" s="2">
-        <v>974</v>
       </c>
       <c r="P249" t="s" s="2">
         <v>20</v>
@@ -33372,10 +33369,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -33401,10 +33398,10 @@
         <v>158</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
@@ -33428,7 +33425,7 @@
         <v>20</v>
       </c>
       <c r="W250" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="X250" t="s" s="2">
         <v>20</v>
@@ -33487,10 +33484,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -33516,13 +33513,13 @@
         <v>158</v>
       </c>
       <c r="L251" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="M251" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="N251" t="s" s="2">
         <v>981</v>
-      </c>
-      <c r="M251" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="O251" s="2"/>
       <c r="P251" t="s" s="2">
@@ -33572,7 +33569,7 @@
         <v>20</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>79</v>
@@ -33587,7 +33584,7 @@
         <v>100</v>
       </c>
       <c r="AK251" t="s" s="2">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AL251" t="s" s="2">
         <v>20</v>
@@ -33596,7 +33593,7 @@
         <v>20</v>
       </c>
       <c r="AN251" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AO251" t="s" s="2">
         <v>20</v>
@@ -33604,10 +33601,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -33633,14 +33630,14 @@
         <v>313</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="N252" s="2"/>
       <c r="O252" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="P252" t="s" s="2">
         <v>20</v>
@@ -33653,7 +33650,7 @@
         <v>20</v>
       </c>
       <c r="T252" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="U252" t="s" s="2">
         <v>20</v>
@@ -33689,7 +33686,7 @@
         <v>20</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>79</v>
@@ -33713,7 +33710,7 @@
         <v>20</v>
       </c>
       <c r="AN252" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AO252" t="s" s="2">
         <v>20</v>
@@ -33721,13 +33718,13 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>735</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D253" t="s" s="2">
         <v>20</v>
@@ -33752,13 +33749,13 @@
         <v>736</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>740</v>
@@ -33842,10 +33839,10 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -33871,10 +33868,10 @@
         <v>158</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -33957,10 +33954,10 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -34074,13 +34071,13 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B256" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="C256" t="s" s="2">
         <v>755</v>
-      </c>
-      <c r="C256" t="s" s="2">
-        <v>757</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>20</v>
@@ -34102,13 +34099,13 @@
         <v>20</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="L256" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M256" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="M256" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
@@ -34191,13 +34188,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>20</v>
@@ -34219,13 +34216,13 @@
         <v>20</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="L257" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="M257" t="s" s="2">
         <v>763</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -34308,13 +34305,13 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D258" t="s" s="2">
         <v>20</v>
@@ -34336,13 +34333,13 @@
         <v>20</v>
       </c>
       <c r="K258" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="L258" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="M258" t="s" s="2">
         <v>768</v>
-      </c>
-      <c r="L258" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="M258" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
@@ -34425,13 +34422,13 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D259" t="s" s="2">
         <v>20</v>
@@ -34453,13 +34450,13 @@
         <v>20</v>
       </c>
       <c r="K259" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="L259" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="M259" t="s" s="2">
         <v>773</v>
-      </c>
-      <c r="L259" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="M259" t="s" s="2">
-        <v>775</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -34542,16 +34539,16 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D260" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" t="s" s="2">
@@ -34570,13 +34567,13 @@
         <v>20</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="L260" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="M260" t="s" s="2">
         <v>779</v>
-      </c>
-      <c r="L260" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="M260" t="s" s="2">
-        <v>781</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -34659,13 +34656,13 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D261" t="s" s="2">
         <v>20</v>
@@ -34687,13 +34684,13 @@
         <v>20</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="L261" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="M261" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="L261" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="M261" t="s" s="2">
-        <v>786</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
@@ -34776,13 +34773,13 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D262" t="s" s="2">
         <v>20</v>
@@ -34804,13 +34801,13 @@
         <v>20</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="L262" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="M262" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="M262" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
@@ -34893,16 +34890,16 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D263" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
@@ -34921,13 +34918,13 @@
         <v>20</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="L263" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M263" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -35010,10 +35007,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -35039,16 +35036,16 @@
         <v>108</v>
       </c>
       <c r="L264" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="M264" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="N264" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M264" t="s" s="2">
+      <c r="O264" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N264" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="O264" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="P264" t="s" s="2">
         <v>20</v>
@@ -35058,7 +35055,7 @@
         <v>20</v>
       </c>
       <c r="S264" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="T264" t="s" s="2">
         <v>746</v>
@@ -35076,28 +35073,28 @@
         <v>179</v>
       </c>
       <c r="Y264" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="Z264" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AA264" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB264" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC264" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD264" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE264" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF264" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="Z264" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="AA264" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB264" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC264" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD264" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE264" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF264" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>79</v>
@@ -35121,7 +35118,7 @@
         <v>20</v>
       </c>
       <c r="AN264" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AO264" t="s" s="2">
         <v>20</v>
@@ -35129,10 +35126,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -35158,13 +35155,13 @@
         <v>108</v>
       </c>
       <c r="L265" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="M265" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="N265" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="M265" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>812</v>
       </c>
       <c r="O265" s="2"/>
       <c r="P265" t="s" s="2">
@@ -35178,7 +35175,7 @@
         <v>20</v>
       </c>
       <c r="T265" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U265" t="s" s="2">
         <v>20</v>
@@ -35193,28 +35190,28 @@
         <v>179</v>
       </c>
       <c r="Y265" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="Z265" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AA265" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB265" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC265" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD265" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE265" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF265" t="s" s="2">
         <v>814</v>
-      </c>
-      <c r="Z265" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="AA265" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB265" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC265" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD265" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE265" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF265" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="AG265" t="s" s="2">
         <v>79</v>
@@ -35238,7 +35235,7 @@
         <v>20</v>
       </c>
       <c r="AN265" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AO265" t="s" s="2">
         <v>20</v>
@@ -35246,10 +35243,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -35275,13 +35272,13 @@
         <v>158</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>560</v>
@@ -35297,7 +35294,7 @@
         <v>20</v>
       </c>
       <c r="T266" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="U266" t="s" s="2">
         <v>20</v>
@@ -35333,7 +35330,7 @@
         <v>20</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>79</v>
@@ -35357,7 +35354,7 @@
         <v>20</v>
       </c>
       <c r="AN266" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AO266" t="s" s="2">
         <v>20</v>
@@ -35365,14 +35362,14 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" t="s" s="2">
@@ -35394,10 +35391,10 @@
         <v>158</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
@@ -35412,7 +35409,7 @@
         <v>20</v>
       </c>
       <c r="T267" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="U267" t="s" s="2">
         <v>20</v>
@@ -35448,7 +35445,7 @@
         <v>20</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>79</v>
@@ -35463,7 +35460,7 @@
         <v>100</v>
       </c>
       <c r="AK267" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AL267" t="s" s="2">
         <v>20</v>
@@ -35472,7 +35469,7 @@
         <v>20</v>
       </c>
       <c r="AN267" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AO267" t="s" s="2">
         <v>20</v>
@@ -35480,14 +35477,14 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" t="s" s="2">
@@ -35509,10 +35506,10 @@
         <v>158</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
@@ -35527,7 +35524,7 @@
         <v>20</v>
       </c>
       <c r="T268" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="U268" t="s" s="2">
         <v>20</v>
@@ -35563,7 +35560,7 @@
         <v>20</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AG268" t="s" s="2">
         <v>79</v>
@@ -35578,7 +35575,7 @@
         <v>100</v>
       </c>
       <c r="AK268" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AL268" t="s" s="2">
         <v>20</v>
@@ -35587,7 +35584,7 @@
         <v>20</v>
       </c>
       <c r="AN268" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AO268" t="s" s="2">
         <v>20</v>
@@ -35595,14 +35592,14 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" t="s" s="2">
@@ -35624,13 +35621,13 @@
         <v>158</v>
       </c>
       <c r="L269" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="M269" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="N269" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" t="s" s="2">
@@ -35644,7 +35641,7 @@
         <v>20</v>
       </c>
       <c r="T269" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="U269" t="s" s="2">
         <v>20</v>
@@ -35680,7 +35677,7 @@
         <v>20</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>79</v>
@@ -35695,7 +35692,7 @@
         <v>100</v>
       </c>
       <c r="AK269" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AL269" t="s" s="2">
         <v>20</v>
@@ -35704,7 +35701,7 @@
         <v>20</v>
       </c>
       <c r="AN269" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AO269" t="s" s="2">
         <v>20</v>
@@ -35712,14 +35709,14 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" t="s" s="2">
@@ -35741,10 +35738,10 @@
         <v>158</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -35795,7 +35792,7 @@
         <v>20</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AG270" t="s" s="2">
         <v>79</v>
@@ -35810,7 +35807,7 @@
         <v>100</v>
       </c>
       <c r="AK270" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AL270" t="s" s="2">
         <v>20</v>
@@ -35819,7 +35816,7 @@
         <v>20</v>
       </c>
       <c r="AN270" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AO270" t="s" s="2">
         <v>20</v>
@@ -35827,14 +35824,14 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271" t="s" s="2">
@@ -35856,10 +35853,10 @@
         <v>158</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -35874,7 +35871,7 @@
         <v>20</v>
       </c>
       <c r="T271" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="U271" t="s" s="2">
         <v>20</v>
@@ -35910,7 +35907,7 @@
         <v>20</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>79</v>
@@ -35925,7 +35922,7 @@
         <v>100</v>
       </c>
       <c r="AK271" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AL271" t="s" s="2">
         <v>20</v>
@@ -35934,7 +35931,7 @@
         <v>20</v>
       </c>
       <c r="AN271" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AO271" t="s" s="2">
         <v>20</v>
@@ -35942,10 +35939,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -35971,10 +35968,10 @@
         <v>158</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -36057,10 +36054,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -36086,10 +36083,10 @@
         <v>134</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
@@ -36170,13 +36167,13 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D274" t="s" s="2">
         <v>20</v>
@@ -36198,13 +36195,13 @@
         <v>20</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
@@ -36287,10 +36284,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -36316,10 +36313,10 @@
         <v>158</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
@@ -36402,10 +36399,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -36517,10 +36514,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -36546,13 +36543,13 @@
         <v>102</v>
       </c>
       <c r="L277" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="M277" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="N277" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" t="s" s="2">
@@ -36560,7 +36557,7 @@
       </c>
       <c r="Q277" s="2"/>
       <c r="R277" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="S277" t="s" s="2">
         <v>20</v>
@@ -36634,10 +36631,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -36663,13 +36660,13 @@
         <v>284</v>
       </c>
       <c r="L278" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="M278" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="N278" t="s" s="2">
         <v>893</v>
-      </c>
-      <c r="M278" t="s" s="2">
-        <v>894</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>895</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" t="s" s="2">
@@ -36751,10 +36748,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -36780,10 +36777,10 @@
         <v>158</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -36866,10 +36863,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -36898,10 +36895,10 @@
         <v>135</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" t="s" s="2">
@@ -36983,10 +36980,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -37009,19 +37006,19 @@
         <v>20</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L281" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M281" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="L281" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="N281" t="s" s="2">
         <v>356</v>
       </c>
       <c r="O281" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="P281" t="s" s="2">
         <v>20</v>
@@ -37058,7 +37055,7 @@
         <v>20</v>
       </c>
       <c r="AB281" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="AC281" s="2"/>
       <c r="AD281" t="s" s="2">
@@ -37083,7 +37080,7 @@
         <v>100</v>
       </c>
       <c r="AK281" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AL281" t="s" s="2">
         <v>20</v>
@@ -37092,7 +37089,7 @@
         <v>20</v>
       </c>
       <c r="AN281" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AO281" t="s" s="2">
         <v>20</v>
@@ -37100,13 +37097,13 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D282" t="s" s="2">
         <v>20</v>
@@ -37128,19 +37125,19 @@
         <v>20</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M282" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="N282" t="s" s="2">
         <v>356</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="P282" t="s" s="2">
         <v>20</v>
@@ -37168,10 +37165,10 @@
         <v>179</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="Z282" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AA282" t="s" s="2">
         <v>20</v>
@@ -37204,7 +37201,7 @@
         <v>100</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AL282" t="s" s="2">
         <v>20</v>
@@ -37213,7 +37210,7 @@
         <v>20</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AO282" t="s" s="2">
         <v>20</v>
@@ -37221,10 +37218,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -37250,10 +37247,10 @@
         <v>158</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
@@ -37336,10 +37333,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -37365,13 +37362,13 @@
         <v>134</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O284" s="2"/>
       <c r="P284" t="s" s="2">
@@ -37453,10 +37450,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -37482,16 +37479,16 @@
         <v>102</v>
       </c>
       <c r="L285" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="M285" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="N285" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="M285" t="s" s="2">
+      <c r="O285" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O285" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="P285" t="s" s="2">
         <v>20</v>
@@ -37501,7 +37498,7 @@
         <v>20</v>
       </c>
       <c r="S285" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="T285" t="s" s="2">
         <v>20</v>
@@ -37572,10 +37569,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -37601,13 +37598,13 @@
         <v>158</v>
       </c>
       <c r="L286" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="M286" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="N286" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="M286" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="N286" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" t="s" s="2">
@@ -37689,10 +37686,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -37718,14 +37715,14 @@
         <v>108</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="P287" t="s" s="2">
         <v>20</v>
@@ -37806,10 +37803,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -37835,14 +37832,14 @@
         <v>158</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="P288" t="s" s="2">
         <v>20</v>
@@ -37923,10 +37920,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -37952,16 +37949,16 @@
         <v>240</v>
       </c>
       <c r="L289" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M289" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="N289" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="M289" t="s" s="2">
+      <c r="O289" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="O289" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="P289" t="s" s="2">
         <v>20</v>
@@ -38042,13 +38039,13 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D290" t="s" s="2">
         <v>20</v>
@@ -38070,19 +38067,19 @@
         <v>20</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L290" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M290" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="M290" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="N290" t="s" s="2">
         <v>356</v>
       </c>
       <c r="O290" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="P290" t="s" s="2">
         <v>20</v>
@@ -38110,10 +38107,10 @@
         <v>179</v>
       </c>
       <c r="Y290" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="Z290" t="s" s="2">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AA290" t="s" s="2">
         <v>20</v>
@@ -38146,7 +38143,7 @@
         <v>100</v>
       </c>
       <c r="AK290" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AL290" t="s" s="2">
         <v>20</v>
@@ -38155,7 +38152,7 @@
         <v>20</v>
       </c>
       <c r="AN290" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AO290" t="s" s="2">
         <v>20</v>
@@ -38163,10 +38160,10 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -38192,10 +38189,10 @@
         <v>158</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
@@ -38278,10 +38275,10 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -38307,13 +38304,13 @@
         <v>134</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
@@ -38395,10 +38392,10 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -38424,16 +38421,16 @@
         <v>102</v>
       </c>
       <c r="L293" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="M293" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="N293" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="M293" t="s" s="2">
+      <c r="O293" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O293" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="P293" t="s" s="2">
         <v>20</v>
@@ -38443,7 +38440,7 @@
         <v>20</v>
       </c>
       <c r="S293" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="T293" t="s" s="2">
         <v>20</v>
@@ -38514,10 +38511,10 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -38543,13 +38540,13 @@
         <v>158</v>
       </c>
       <c r="L294" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="M294" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="N294" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="M294" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="O294" s="2"/>
       <c r="P294" t="s" s="2">
@@ -38631,10 +38628,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -38660,14 +38657,14 @@
         <v>108</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="P295" t="s" s="2">
         <v>20</v>
@@ -38748,10 +38745,10 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -38777,14 +38774,14 @@
         <v>158</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="N296" s="2"/>
       <c r="O296" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="P296" t="s" s="2">
         <v>20</v>
@@ -38865,10 +38862,10 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -38894,16 +38891,16 @@
         <v>240</v>
       </c>
       <c r="L297" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M297" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="N297" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="M297" t="s" s="2">
+      <c r="O297" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="N297" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="O297" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="P297" t="s" s="2">
         <v>20</v>
@@ -38984,13 +38981,13 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D298" t="s" s="2">
         <v>20</v>
@@ -39012,19 +39009,19 @@
         <v>20</v>
       </c>
       <c r="K298" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L298" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M298" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="L298" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="M298" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="N298" t="s" s="2">
         <v>356</v>
       </c>
       <c r="O298" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="P298" t="s" s="2">
         <v>20</v>
@@ -39052,10 +39049,10 @@
         <v>179</v>
       </c>
       <c r="Y298" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="Z298" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AA298" t="s" s="2">
         <v>20</v>
@@ -39088,7 +39085,7 @@
         <v>100</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AL298" t="s" s="2">
         <v>20</v>
@@ -39097,7 +39094,7 @@
         <v>20</v>
       </c>
       <c r="AN298" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AO298" t="s" s="2">
         <v>20</v>
@@ -39105,10 +39102,10 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -39134,10 +39131,10 @@
         <v>158</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
@@ -39220,10 +39217,10 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -39249,13 +39246,13 @@
         <v>134</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
@@ -39337,10 +39334,10 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s" s="2">
@@ -39366,16 +39363,16 @@
         <v>102</v>
       </c>
       <c r="L301" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="M301" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="N301" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="M301" t="s" s="2">
+      <c r="O301" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="N301" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O301" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="P301" t="s" s="2">
         <v>20</v>
@@ -39385,7 +39382,7 @@
         <v>20</v>
       </c>
       <c r="S301" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="T301" t="s" s="2">
         <v>20</v>
@@ -39456,10 +39453,10 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -39485,13 +39482,13 @@
         <v>158</v>
       </c>
       <c r="L302" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="M302" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="N302" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="M302" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="N302" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="O302" s="2"/>
       <c r="P302" t="s" s="2">
@@ -39573,10 +39570,10 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -39602,14 +39599,14 @@
         <v>108</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="N303" s="2"/>
       <c r="O303" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="P303" t="s" s="2">
         <v>20</v>
@@ -39690,10 +39687,10 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -39719,14 +39716,14 @@
         <v>158</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="N304" s="2"/>
       <c r="O304" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="P304" t="s" s="2">
         <v>20</v>
@@ -39807,10 +39804,10 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -39836,16 +39833,16 @@
         <v>240</v>
       </c>
       <c r="L305" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M305" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="N305" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="M305" t="s" s="2">
+      <c r="O305" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="N305" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="O305" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="P305" t="s" s="2">
         <v>20</v>
@@ -39926,10 +39923,10 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -39955,16 +39952,16 @@
         <v>158</v>
       </c>
       <c r="L306" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="M306" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N306" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M306" t="s" s="2">
+      <c r="O306" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="O306" t="s" s="2">
-        <v>974</v>
       </c>
       <c r="P306" t="s" s="2">
         <v>20</v>
@@ -40045,10 +40042,10 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -40074,10 +40071,10 @@
         <v>158</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
@@ -40101,7 +40098,7 @@
         <v>20</v>
       </c>
       <c r="W307" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="X307" t="s" s="2">
         <v>20</v>
@@ -40160,10 +40157,10 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -40189,13 +40186,13 @@
         <v>158</v>
       </c>
       <c r="L308" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="M308" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="N308" t="s" s="2">
         <v>981</v>
-      </c>
-      <c r="M308" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="O308" s="2"/>
       <c r="P308" t="s" s="2">
@@ -40245,7 +40242,7 @@
         <v>20</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AG308" t="s" s="2">
         <v>79</v>
@@ -40260,7 +40257,7 @@
         <v>100</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AL308" t="s" s="2">
         <v>20</v>
@@ -40269,7 +40266,7 @@
         <v>20</v>
       </c>
       <c r="AN308" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AO308" t="s" s="2">
         <v>20</v>
@@ -40277,10 +40274,10 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -40306,14 +40303,14 @@
         <v>313</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="N309" s="2"/>
       <c r="O309" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="P309" t="s" s="2">
         <v>20</v>
@@ -40326,7 +40323,7 @@
         <v>20</v>
       </c>
       <c r="T309" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="U309" t="s" s="2">
         <v>20</v>
@@ -40362,7 +40359,7 @@
         <v>20</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AG309" t="s" s="2">
         <v>79</v>
@@ -40386,7 +40383,7 @@
         <v>20</v>
       </c>
       <c r="AN309" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AO309" t="s" s="2">
         <v>20</v>
@@ -40394,10 +40391,10 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -40423,16 +40420,16 @@
         <v>284</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="N310" t="s" s="2">
         <v>287</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="P310" t="s" s="2">
         <v>20</v>
@@ -40460,10 +40457,10 @@
         <v>289</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="Z310" t="s" s="2">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AA310" t="s" s="2">
         <v>20</v>
@@ -40481,7 +40478,7 @@
         <v>20</v>
       </c>
       <c r="AF310" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AG310" t="s" s="2">
         <v>79</v>
@@ -40513,10 +40510,10 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -40539,19 +40536,19 @@
         <v>20</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="L311" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="M311" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="L311" t="s" s="2">
+      <c r="N311" t="s" s="2">
         <v>1062</v>
       </c>
-      <c r="M311" t="s" s="2">
+      <c r="O311" t="s" s="2">
         <v>1063</v>
-      </c>
-      <c r="N311" t="s" s="2">
-        <v>1064</v>
-      </c>
-      <c r="O311" t="s" s="2">
-        <v>1065</v>
       </c>
       <c r="P311" t="s" s="2">
         <v>20</v>
@@ -40600,7 +40597,7 @@
         <v>20</v>
       </c>
       <c r="AF311" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AG311" t="s" s="2">
         <v>79</v>
@@ -40615,7 +40612,7 @@
         <v>100</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AL311" t="s" s="2">
         <v>162</v>
@@ -40624,7 +40621,7 @@
         <v>20</v>
       </c>
       <c r="AN311" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AO311" t="s" s="2">
         <v>20</v>
@@ -40632,10 +40629,10 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -40658,19 +40655,19 @@
         <v>20</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="L312" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="M312" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="N312" t="s" s="2">
         <v>1069</v>
       </c>
-      <c r="L312" t="s" s="2">
+      <c r="O312" t="s" s="2">
         <v>1070</v>
-      </c>
-      <c r="M312" t="s" s="2">
-        <v>1070</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>1071</v>
-      </c>
-      <c r="O312" t="s" s="2">
-        <v>1072</v>
       </c>
       <c r="P312" t="s" s="2">
         <v>20</v>
@@ -40719,7 +40716,7 @@
         <v>20</v>
       </c>
       <c r="AF312" t="s" s="2">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AG312" t="s" s="2">
         <v>79</v>
@@ -40734,7 +40731,7 @@
         <v>100</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AL312" t="s" s="2">
         <v>162</v>
@@ -40743,7 +40740,7 @@
         <v>20</v>
       </c>
       <c r="AN312" t="s" s="2">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AO312" t="s" s="2">
         <v>20</v>
@@ -40751,10 +40748,10 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -40777,19 +40774,19 @@
         <v>20</v>
       </c>
       <c r="K313" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="L313" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="M313" t="s" s="2">
         <v>1076</v>
       </c>
-      <c r="L313" t="s" s="2">
+      <c r="N313" t="s" s="2">
         <v>1077</v>
       </c>
-      <c r="M313" t="s" s="2">
+      <c r="O313" t="s" s="2">
         <v>1078</v>
-      </c>
-      <c r="N313" t="s" s="2">
-        <v>1079</v>
-      </c>
-      <c r="O313" t="s" s="2">
-        <v>1080</v>
       </c>
       <c r="P313" t="s" s="2">
         <v>20</v>
@@ -40838,7 +40835,7 @@
         <v>20</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AG313" t="s" s="2">
         <v>79</v>
@@ -40850,10 +40847,10 @@
         <v>20</v>
       </c>
       <c r="AJ313" t="s" s="2">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AK313" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AL313" t="s" s="2">
         <v>162</v>
@@ -40870,10 +40867,10 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -40985,10 +40982,10 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -41102,14 +41099,14 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E316" s="2"/>
       <c r="F316" t="s" s="2">
@@ -41131,10 +41128,10 @@
         <v>134</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>189</v>
@@ -41189,7 +41186,7 @@
         <v>20</v>
       </c>
       <c r="AF316" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AG316" t="s" s="2">
         <v>79</v>
@@ -41221,10 +41218,10 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -41250,16 +41247,16 @@
         <v>284</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="N317" t="s" s="2">
         <v>287</v>
       </c>
       <c r="O317" t="s" s="2">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="P317" t="s" s="2">
         <v>20</v>
@@ -41290,7 +41287,7 @@
         <v>676</v>
       </c>
       <c r="Z317" t="s" s="2">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AA317" t="s" s="2">
         <v>20</v>
@@ -41308,7 +41305,7 @@
         <v>20</v>
       </c>
       <c r="AF317" t="s" s="2">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AG317" t="s" s="2">
         <v>79</v>
@@ -41340,10 +41337,10 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -41369,14 +41366,14 @@
         <v>528</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="N318" s="2"/>
       <c r="O318" t="s" s="2">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="P318" t="s" s="2">
         <v>20</v>
@@ -41425,7 +41422,7 @@
         <v>20</v>
       </c>
       <c r="AF318" t="s" s="2">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AG318" t="s" s="2">
         <v>79</v>
@@ -41449,7 +41446,7 @@
         <v>20</v>
       </c>
       <c r="AN318" t="s" s="2">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AO318" t="s" s="2">
         <v>20</v>
@@ -41457,10 +41454,10 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -41572,10 +41569,10 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -41689,10 +41686,10 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -41808,10 +41805,10 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -41837,13 +41834,13 @@
         <v>158</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="M322" t="s" s="2">
         <v>634</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>560</v>
@@ -41927,10 +41924,10 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -41956,7 +41953,7 @@
         <v>158</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="M323" t="s" s="2">
         <v>570</v>
@@ -42044,10 +42041,10 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -42073,7 +42070,7 @@
         <v>158</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="M324" t="s" s="2">
         <v>580</v>
@@ -42161,10 +42158,10 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -42276,10 +42273,10 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -42391,10 +42388,10 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -42508,10 +42505,10 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -42537,16 +42534,16 @@
         <v>663</v>
       </c>
       <c r="L328" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="M328" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="N328" t="s" s="2">
         <v>1114</v>
       </c>
-      <c r="M328" t="s" s="2">
+      <c r="O328" t="s" s="2">
         <v>1115</v>
-      </c>
-      <c r="N328" t="s" s="2">
-        <v>1116</v>
-      </c>
-      <c r="O328" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="P328" t="s" s="2">
         <v>20</v>
@@ -42595,7 +42592,7 @@
         <v>20</v>
       </c>
       <c r="AF328" t="s" s="2">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AG328" t="s" s="2">
         <v>79</v>
@@ -42619,7 +42616,7 @@
         <v>20</v>
       </c>
       <c r="AN328" t="s" s="2">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="AO328" t="s" s="2">
         <v>20</v>
@@ -42627,10 +42624,10 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -42742,10 +42739,10 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -42859,10 +42856,10 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -42974,10 +42971,10 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -43003,10 +43000,10 @@
         <v>158</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="N332" t="s" s="2">
         <v>685</v>
@@ -43093,10 +43090,10 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -43212,10 +43209,10 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -43329,10 +43326,10 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -43444,10 +43441,10 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -43473,16 +43470,16 @@
         <v>736</v>
       </c>
       <c r="L336" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="M336" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="N336" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="O336" t="s" s="2">
         <v>1129</v>
-      </c>
-      <c r="M336" t="s" s="2">
-        <v>1129</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="O336" t="s" s="2">
-        <v>1130</v>
       </c>
       <c r="P336" t="s" s="2">
         <v>20</v>
@@ -43531,7 +43528,7 @@
         <v>20</v>
       </c>
       <c r="AF336" t="s" s="2">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AG336" t="s" s="2">
         <v>79</v>
@@ -43563,10 +43560,10 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -43595,11 +43592,11 @@
         <v>708</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="N337" s="2"/>
       <c r="O337" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P337" t="s" s="2">
         <v>20</v>
@@ -43627,7 +43624,7 @@
         <v>179</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>713</v>
@@ -43648,7 +43645,7 @@
         <v>20</v>
       </c>
       <c r="AF337" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AG337" t="s" s="2">
         <v>79</v>
@@ -43672,7 +43669,7 @@
         <v>20</v>
       </c>
       <c r="AN337" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AO337" t="s" s="2">
         <v>20</v>
@@ -43680,10 +43677,10 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
@@ -43706,17 +43703,17 @@
         <v>20</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>406</v>
+        <v>320</v>
       </c>
       <c r="L338" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="M338" t="s" s="2">
         <v>1137</v>
-      </c>
-      <c r="M338" t="s" s="2">
-        <v>1138</v>
       </c>
       <c r="N338" s="2"/>
       <c r="O338" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P338" t="s" s="2">
         <v>20</v>
@@ -43765,7 +43762,7 @@
         <v>20</v>
       </c>
       <c r="AF338" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AG338" t="s" s="2">
         <v>79</v>
@@ -43774,13 +43771,13 @@
         <v>88</v>
       </c>
       <c r="AI338" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AJ338" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK338" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AL338" t="s" s="2">
         <v>162</v>
@@ -43789,7 +43786,7 @@
         <v>20</v>
       </c>
       <c r="AN338" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AO338" t="s" s="2">
         <v>20</v>
@@ -43797,10 +43794,10 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -43826,10 +43823,10 @@
         <v>313</v>
       </c>
       <c r="L339" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="M339" t="s" s="2">
         <v>1144</v>
-      </c>
-      <c r="M339" t="s" s="2">
-        <v>1145</v>
       </c>
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
@@ -43880,7 +43877,7 @@
         <v>20</v>
       </c>
       <c r="AF339" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AG339" t="s" s="2">
         <v>79</v>
@@ -43895,7 +43892,7 @@
         <v>100</v>
       </c>
       <c r="AK339" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AL339" t="s" s="2">
         <v>162</v>
@@ -43912,10 +43909,10 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -43938,19 +43935,19 @@
         <v>20</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="L340" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="M340" t="s" s="2">
         <v>1148</v>
       </c>
-      <c r="M340" t="s" s="2">
+      <c r="N340" t="s" s="2">
         <v>1149</v>
       </c>
-      <c r="N340" t="s" s="2">
+      <c r="O340" t="s" s="2">
         <v>1150</v>
-      </c>
-      <c r="O340" t="s" s="2">
-        <v>1151</v>
       </c>
       <c r="P340" t="s" s="2">
         <v>20</v>
@@ -43999,7 +43996,7 @@
         <v>20</v>
       </c>
       <c r="AF340" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AG340" t="s" s="2">
         <v>79</v>
@@ -44014,10 +44011,10 @@
         <v>100</v>
       </c>
       <c r="AK340" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="AL340" t="s" s="2">
         <v>1152</v>
-      </c>
-      <c r="AL340" t="s" s="2">
-        <v>1153</v>
       </c>
       <c r="AM340" t="s" s="2">
         <v>20</v>
@@ -44031,10 +44028,10 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
@@ -44146,10 +44143,10 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -44263,14 +44260,14 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
@@ -44292,10 +44289,10 @@
         <v>134</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="N343" t="s" s="2">
         <v>189</v>
@@ -44350,7 +44347,7 @@
         <v>20</v>
       </c>
       <c r="AF343" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AG343" t="s" s="2">
         <v>79</v>
@@ -44382,10 +44379,10 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -44411,16 +44408,16 @@
         <v>284</v>
       </c>
       <c r="L344" t="s" s="2">
+        <v>1157</v>
+      </c>
+      <c r="M344" t="s" s="2">
         <v>1158</v>
       </c>
-      <c r="M344" t="s" s="2">
+      <c r="N344" t="s" s="2">
         <v>1159</v>
       </c>
-      <c r="N344" t="s" s="2">
+      <c r="O344" t="s" s="2">
         <v>1160</v>
-      </c>
-      <c r="O344" t="s" s="2">
-        <v>1161</v>
       </c>
       <c r="P344" t="s" s="2">
         <v>20</v>
@@ -44469,7 +44466,7 @@
         <v>20</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AG344" t="s" s="2">
         <v>88</v>
@@ -44501,10 +44498,10 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
@@ -44530,16 +44527,16 @@
         <v>240</v>
       </c>
       <c r="L345" t="s" s="2">
+        <v>1162</v>
+      </c>
+      <c r="M345" t="s" s="2">
         <v>1163</v>
       </c>
-      <c r="M345" t="s" s="2">
+      <c r="N345" t="s" s="2">
         <v>1164</v>
       </c>
-      <c r="N345" t="s" s="2">
+      <c r="O345" t="s" s="2">
         <v>1165</v>
-      </c>
-      <c r="O345" t="s" s="2">
-        <v>1166</v>
       </c>
       <c r="P345" t="s" s="2">
         <v>20</v>
@@ -44588,7 +44585,7 @@
         <v>20</v>
       </c>
       <c r="AF345" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AG345" t="s" s="2">
         <v>79</v>
@@ -44603,16 +44600,16 @@
         <v>100</v>
       </c>
       <c r="AK345" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="AL345" t="s" s="2">
         <v>1167</v>
       </c>
-      <c r="AL345" t="s" s="2">
+      <c r="AM345" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN345" t="s" s="2">
         <v>1168</v>
-      </c>
-      <c r="AM345" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN345" t="s" s="2">
-        <v>1169</v>
       </c>
       <c r="AO345" t="s" s="2">
         <v>20</v>
@@ -44620,14 +44617,14 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" t="s" s="2">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E346" s="2"/>
       <c r="F346" t="s" s="2">
@@ -44646,16 +44643,16 @@
         <v>20</v>
       </c>
       <c r="K346" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="L346" t="s" s="2">
         <v>1172</v>
       </c>
-      <c r="L346" t="s" s="2">
+      <c r="M346" t="s" s="2">
         <v>1173</v>
       </c>
-      <c r="M346" t="s" s="2">
+      <c r="N346" t="s" s="2">
         <v>1174</v>
-      </c>
-      <c r="N346" t="s" s="2">
-        <v>1175</v>
       </c>
       <c r="O346" s="2"/>
       <c r="P346" t="s" s="2">
@@ -44705,7 +44702,7 @@
         <v>20</v>
       </c>
       <c r="AF346" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AG346" t="s" s="2">
         <v>79</v>
@@ -44720,7 +44717,7 @@
         <v>100</v>
       </c>
       <c r="AK346" t="s" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AL346" t="s" s="2">
         <v>162</v>
@@ -44729,7 +44726,7 @@
         <v>20</v>
       </c>
       <c r="AN346" t="s" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AO346" t="s" s="2">
         <v>20</v>
@@ -44737,10 +44734,10 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -44763,19 +44760,19 @@
         <v>89</v>
       </c>
       <c r="K347" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="L347" t="s" s="2">
         <v>1179</v>
       </c>
-      <c r="L347" t="s" s="2">
+      <c r="M347" t="s" s="2">
         <v>1180</v>
       </c>
-      <c r="M347" t="s" s="2">
+      <c r="N347" t="s" s="2">
         <v>1181</v>
       </c>
-      <c r="N347" t="s" s="2">
+      <c r="O347" t="s" s="2">
         <v>1182</v>
-      </c>
-      <c r="O347" t="s" s="2">
-        <v>1183</v>
       </c>
       <c r="P347" t="s" s="2">
         <v>20</v>
@@ -44824,7 +44821,7 @@
         <v>20</v>
       </c>
       <c r="AF347" t="s" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AG347" t="s" s="2">
         <v>79</v>
@@ -44839,10 +44836,10 @@
         <v>100</v>
       </c>
       <c r="AK347" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AL347" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AM347" t="s" s="2">
         <v>20</v>
@@ -44856,10 +44853,10 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" t="s" s="2">
@@ -44971,10 +44968,10 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" t="s" s="2">
@@ -45088,10 +45085,10 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" t="s" s="2">
@@ -45117,13 +45114,13 @@
         <v>158</v>
       </c>
       <c r="L350" t="s" s="2">
+        <v>1187</v>
+      </c>
+      <c r="M350" t="s" s="2">
         <v>1188</v>
       </c>
-      <c r="M350" t="s" s="2">
+      <c r="N350" t="s" s="2">
         <v>1189</v>
-      </c>
-      <c r="N350" t="s" s="2">
-        <v>1190</v>
       </c>
       <c r="O350" s="2"/>
       <c r="P350" t="s" s="2">
@@ -45173,16 +45170,16 @@
         <v>20</v>
       </c>
       <c r="AF350" t="s" s="2">
+        <v>1190</v>
+      </c>
+      <c r="AG350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH350" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI350" t="s" s="2">
         <v>1191</v>
-      </c>
-      <c r="AG350" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH350" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI350" t="s" s="2">
-        <v>1192</v>
       </c>
       <c r="AJ350" t="s" s="2">
         <v>100</v>
@@ -45205,10 +45202,10 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
@@ -45234,13 +45231,13 @@
         <v>102</v>
       </c>
       <c r="L351" t="s" s="2">
+        <v>1193</v>
+      </c>
+      <c r="M351" t="s" s="2">
         <v>1194</v>
       </c>
-      <c r="M351" t="s" s="2">
+      <c r="N351" t="s" s="2">
         <v>1195</v>
-      </c>
-      <c r="N351" t="s" s="2">
-        <v>1196</v>
       </c>
       <c r="O351" s="2"/>
       <c r="P351" t="s" s="2">
@@ -45269,28 +45266,28 @@
         <v>289</v>
       </c>
       <c r="Y351" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="Z351" t="s" s="2">
         <v>1197</v>
       </c>
-      <c r="Z351" t="s" s="2">
+      <c r="AA351" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB351" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC351" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD351" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE351" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF351" t="s" s="2">
         <v>1198</v>
-      </c>
-      <c r="AA351" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB351" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC351" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD351" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE351" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF351" t="s" s="2">
-        <v>1199</v>
       </c>
       <c r="AG351" t="s" s="2">
         <v>79</v>
@@ -45322,10 +45319,10 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" t="s" s="2">
@@ -45351,13 +45348,13 @@
         <v>263</v>
       </c>
       <c r="L352" t="s" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M352" t="s" s="2">
         <v>1201</v>
       </c>
-      <c r="M352" t="s" s="2">
+      <c r="N352" t="s" s="2">
         <v>1202</v>
-      </c>
-      <c r="N352" t="s" s="2">
-        <v>1203</v>
       </c>
       <c r="O352" s="2"/>
       <c r="P352" t="s" s="2">
@@ -45407,7 +45404,7 @@
         <v>20</v>
       </c>
       <c r="AF352" t="s" s="2">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AG352" t="s" s="2">
         <v>79</v>
@@ -45422,7 +45419,7 @@
         <v>100</v>
       </c>
       <c r="AK352" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AL352" t="s" s="2">
         <v>20</v>
@@ -45439,10 +45436,10 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" t="s" s="2">
@@ -45468,13 +45465,13 @@
         <v>158</v>
       </c>
       <c r="L353" t="s" s="2">
+        <v>1206</v>
+      </c>
+      <c r="M353" t="s" s="2">
         <v>1207</v>
       </c>
-      <c r="M353" t="s" s="2">
+      <c r="N353" t="s" s="2">
         <v>1208</v>
-      </c>
-      <c r="N353" t="s" s="2">
-        <v>1209</v>
       </c>
       <c r="O353" s="2"/>
       <c r="P353" t="s" s="2">
@@ -45524,7 +45521,7 @@
         <v>20</v>
       </c>
       <c r="AF353" t="s" s="2">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AG353" t="s" s="2">
         <v>79</v>
@@ -45556,10 +45553,10 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" t="s" s="2">
@@ -45582,19 +45579,19 @@
         <v>89</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="L354" t="s" s="2">
+        <v>1211</v>
+      </c>
+      <c r="M354" t="s" s="2">
         <v>1212</v>
       </c>
-      <c r="M354" t="s" s="2">
+      <c r="N354" t="s" s="2">
         <v>1213</v>
       </c>
-      <c r="N354" t="s" s="2">
+      <c r="O354" t="s" s="2">
         <v>1214</v>
-      </c>
-      <c r="O354" t="s" s="2">
-        <v>1215</v>
       </c>
       <c r="P354" t="s" s="2">
         <v>20</v>
@@ -45643,7 +45640,7 @@
         <v>20</v>
       </c>
       <c r="AF354" t="s" s="2">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AG354" t="s" s="2">
         <v>79</v>
@@ -45658,7 +45655,7 @@
         <v>100</v>
       </c>
       <c r="AK354" t="s" s="2">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AL354" t="s" s="2">
         <v>162</v>
@@ -45675,10 +45672,10 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" t="s" s="2">
@@ -45790,10 +45787,10 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" t="s" s="2">
@@ -45907,14 +45904,14 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" t="s" s="2">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E357" s="2"/>
       <c r="F357" t="s" s="2">
@@ -45936,10 +45933,10 @@
         <v>134</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="N357" t="s" s="2">
         <v>189</v>
@@ -45994,7 +45991,7 @@
         <v>20</v>
       </c>
       <c r="AF357" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AG357" t="s" s="2">
         <v>79</v>
@@ -46026,10 +46023,10 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" t="s" s="2">
@@ -46052,16 +46049,16 @@
         <v>89</v>
       </c>
       <c r="K358" t="s" s="2">
+        <v>1220</v>
+      </c>
+      <c r="L358" t="s" s="2">
         <v>1221</v>
       </c>
-      <c r="L358" t="s" s="2">
+      <c r="M358" t="s" s="2">
         <v>1222</v>
       </c>
-      <c r="M358" t="s" s="2">
+      <c r="N358" t="s" s="2">
         <v>1223</v>
-      </c>
-      <c r="N358" t="s" s="2">
-        <v>1224</v>
       </c>
       <c r="O358" s="2"/>
       <c r="P358" t="s" s="2">
@@ -46111,7 +46108,7 @@
         <v>20</v>
       </c>
       <c r="AF358" t="s" s="2">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AG358" t="s" s="2">
         <v>88</v>
@@ -46135,7 +46132,7 @@
         <v>20</v>
       </c>
       <c r="AN358" t="s" s="2">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AO358" t="s" s="2">
         <v>20</v>
@@ -46143,10 +46140,10 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
@@ -46172,10 +46169,10 @@
         <v>108</v>
       </c>
       <c r="L359" t="s" s="2">
+        <v>1226</v>
+      </c>
+      <c r="M359" t="s" s="2">
         <v>1227</v>
-      </c>
-      <c r="M359" t="s" s="2">
-        <v>1228</v>
       </c>
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
@@ -46205,11 +46202,11 @@
         <v>179</v>
       </c>
       <c r="Y359" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="Z359" t="s" s="2">
         <v>1229</v>
       </c>
-      <c r="Z359" t="s" s="2">
-        <v>1230</v>
-      </c>
       <c r="AA359" t="s" s="2">
         <v>20</v>
       </c>
@@ -46226,7 +46223,7 @@
         <v>20</v>
       </c>
       <c r="AF359" t="s" s="2">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AG359" t="s" s="2">
         <v>88</v>
@@ -46241,7 +46238,7 @@
         <v>100</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AL359" t="s" s="2">
         <v>162</v>

--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -4136,17 +4136,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="80.15625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.7578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="78.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.03125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="209.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="198.32421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4155,27 +4155,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.58203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.9375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.44921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.1640625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="137.7109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="35.7421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="92.15234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.9296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientReferral.xlsx
+++ b/docs/StructureDefinition-LTCPatientReferral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
